--- a/论文记录.xlsx
+++ b/论文记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481">
   <si>
     <t>Name</t>
   </si>
@@ -132,7 +132,7 @@
     <t>Named entity recgonition (Event recognition) - relation recognition</t>
   </si>
   <si>
-    <t>WSJ Corpus</t>
+    <t>WSJ</t>
   </si>
   <si>
     <t>每个单词包含两个features：semantic feature: POS with gazetteer extension; morphological feature: syntactic features。每个PN通过8个words表征，开头两个、结尾两个、PN前两个、PN后两个</t>
@@ -346,8 +346,7 @@
 extraction)-relationship extraction-hypothesis generation</t>
   </si>
   <si>
-    <t>Yapex Corpus, GENIA Corpus, UMLS, Mammalian
-Ontology</t>
+    <t>Yapex, GENIA, UMLS, Mammalian Phenotype Ontology</t>
   </si>
   <si>
     <t>AbGene system, GAPSCORE system, HMM, MEDLEE system</t>
@@ -377,7 +376,7 @@
     <t>本文的重点在于如何采用外部词典来优化NER过程，该问题的难点是外部词典往往采用与文本不完全一致的表述方式</t>
   </si>
   <si>
-    <t>Address data, email data, jobs data</t>
+    <t>Others</t>
   </si>
   <si>
     <t>前一个片段、片段本身以及片段的一些属性</t>
@@ -404,7 +403,7 @@
     <t>NAACL HLT 2010 - Human Language Technologies: The 2010 Annual Conference of the North American Chapter of the Association for Computational Linguistics</t>
   </si>
   <si>
-    <t>CoNLL 2003 shared-task, CoNLL-X</t>
+    <t>CoNLL 2003</t>
   </si>
   <si>
     <t xml:space="preserve">word identities, word affixes, orthography,part-of-speech tags, corresponding concatenations </t>
@@ -413,7 +412,7 @@
     <t>Distributed training strategies for perceptron</t>
   </si>
   <si>
-    <t>ExploitingWikipedia as External Knowledge for Named Entity Recognition</t>
+    <t>Exploiting Wikipedia as External Knowledge for Named Entity Recognition</t>
   </si>
   <si>
     <t>Jun’ichi Kazama, Kentaro Torisawa</t>
@@ -428,7 +427,7 @@
     <t>将维基百科作为词典应用在NER问题中</t>
   </si>
   <si>
-    <t>CoNLL 2003, Wikipedia data in XML format</t>
+    <t xml:space="preserve">CoNLL 2003, Wikipedia </t>
   </si>
   <si>
     <t>Gazetteers, CRF</t>
@@ -452,9 +451,6 @@
     <t>NER in query</t>
   </si>
   <si>
-    <t>实际抓取的query数据</t>
-  </si>
-  <si>
     <t>Latent Dirichlet Allocation, weakly supervised learning</t>
   </si>
   <si>
@@ -500,7 +496,7 @@
     <t>先验知识+全局决策 提高NER的效果</t>
   </si>
   <si>
-    <t>CoNLL-2003 NER shared task, MUC7 data, web pages</t>
+    <t>CoNLL 2003, MUC7, Others</t>
   </si>
   <si>
     <t>previous predictions,current word, word type, prefixes and suffixes, tokens in the window, capitalization pattern in the window, conjunction, POS tags, shallow parsing information, gazetteers</t>
@@ -566,7 +562,7 @@
     <t>HLT/EMNLP 2005 - Human Language Technology Conference and Conference on Empirical Methods in Natural Language Processing</t>
   </si>
   <si>
-    <t>Penn Treebank corpus, CoNLL-2000 shared task, WSJ corpus</t>
+    <t>Penn Treebank, CoNLL 2000, WSJ</t>
   </si>
   <si>
     <t>bidirectional inference, ME</t>
@@ -623,7 +619,7 @@
     <t>Disease name NER</t>
   </si>
   <si>
-    <t>NCBI disease corpus： MeSH,OMIM</t>
+    <t>MeSH,OMIM</t>
   </si>
   <si>
     <t>Develop corpus - NCBI disease corpus, 定义NE提取原则</t>
@@ -653,7 +649,7 @@
     <t>Language</t>
   </si>
   <si>
-    <t>DBpedia Spotlight learned from Wikipedia</t>
+    <t>DBpedia</t>
   </si>
   <si>
     <t>generative probablistic model</t>
@@ -701,9 +697,6 @@
     <t>Clinic</t>
   </si>
   <si>
-    <t>Annotated notes</t>
-  </si>
-  <si>
     <t>BOW, orthographic information, POS tag, normalized concepts</t>
   </si>
   <si>
@@ -743,7 +736,7 @@
     <t>Advances in Neural Information Processing Systems 24: 25th Annual Conference on Neural Information Processing Systems 2011, NIPS 2011</t>
   </si>
   <si>
-    <t>CoNLL 2003 shared task, CoNLL 2000 shared task</t>
+    <t xml:space="preserve">CoNLL 2003, CoNLL 2000 </t>
   </si>
   <si>
     <t>type information, Word tokens in window, Previous two predictions, conjunction, Embedding features</t>
@@ -827,7 +820,7 @@
     <t>Information extraction task of identifying and classifying mentions of people, organisations, locations and other named entities (nes) within text</t>
   </si>
   <si>
-    <t>Wikipedia， CoNLL shared task</t>
+    <t>Wikipedia， CoNLL 2002, CoNLL 2003, Others</t>
   </si>
   <si>
     <t>hierarchical classification scheme, logistic regression</t>
@@ -854,9 +847,7 @@
     <t>Word representation</t>
   </si>
   <si>
-    <t>CoNLL-2003 shared benchmark, ACE Phase
-2 (2001-02) and ACE-2003 data, MUC7
-Formal Run test set, Wikipedia, Gigaword5</t>
+    <t>CoNLL 2003, ACE 2, ACE 2003, MUC7, Wikipedia, Gigaword5</t>
   </si>
   <si>
     <t>GloVe(Global Vectors), Stanford NER methods, CRF</t>
@@ -883,7 +874,7 @@
     <t>The task of identifying mentions of rigid designators from text belonging to named-entity types such as persons, organizations and locations</t>
   </si>
   <si>
-    <t xml:space="preserve">Tweets, ACE05, Enron,CoNLL03 </t>
+    <t xml:space="preserve">Tweets, ACE 2005, Enron,CoNLL 2003 </t>
   </si>
   <si>
     <t xml:space="preserve">word window of 5, orthographic features, lexical features, gazetteers
@@ -905,7 +896,7 @@
     <t>Humboldt-Universität zu Berlin</t>
   </si>
   <si>
-    <t>SCAI corpus</t>
+    <t>SCAI</t>
   </si>
   <si>
     <t>morphological features, BOW …</t>
@@ -929,7 +920,7 @@
     <t>对于Tweets分词并通过社交属性排名确定是NE的可能性</t>
   </si>
   <si>
-    <t>Wikipedia, Microsoft Web N-Gram, Tweets</t>
+    <t>Wikipedia, Web Pages, Tweets</t>
   </si>
   <si>
     <t>dynamic programming algorithm, random walk model</t>
@@ -968,7 +959,7 @@
     <t>Language, Social media</t>
   </si>
   <si>
-    <t>annotated corpus of sina Weibo messages</t>
+    <t>Sina Weibo</t>
   </si>
   <si>
     <t>character-positional embeddings</t>
@@ -1001,7 +992,7 @@
     <t>NERC-Realtion extraction</t>
   </si>
   <si>
-    <t>Web pages retrieved via the Google Search API</t>
+    <t>Web Pages</t>
   </si>
   <si>
     <t xml:space="preserve">NEC features, RE features </t>
@@ -1028,7 +1019,7 @@
     <t>Task of finding rigid designators as they appear in free text and classifying them into coarse categories</t>
   </si>
   <si>
-    <t>annotated tweets, CoNLL 2003 newswire</t>
+    <t xml:space="preserve">Tweets, CoNLL 2003 </t>
   </si>
   <si>
     <t>Brown clusters/ word vector, Semi-Markov Inference, Passive-Aggressive (PA) algorithm</t>
@@ -1047,9 +1038,6 @@
     <t>Cluster Computing</t>
   </si>
   <si>
-    <t>JNLPBA 2004, GENIA corpus v.3.02</t>
-  </si>
-  <si>
     <t>Word features， Capitalization and digit features， Prefix and suffix features，POS, Word normalization features, Previous NE tags, Triggerword features, Keywords features;Input features, Category-noun features, Adjacent-noun features, Combined features</t>
   </si>
   <si>
@@ -1081,10 +1069,6 @@
   </si>
   <si>
     <t>NER-NEL(NED)-coreference resolution- relation extraction</t>
-  </si>
-  <si>
-    <t>The corpus of tweets developed by Ritter et al. (2011), Twitter annotation experiment with crowdsourcing at UMBC, dataset developed for the Making Sense of Microposts
-2013 Concept Extraction Challenge</t>
   </si>
   <si>
     <t xml:space="preserve">Language identification,Part-of-speech (POS) tagging, Normalisation </t>
@@ -1116,9 +1100,6 @@
     <t>自动搜索Feature组合</t>
   </si>
   <si>
-    <t>CoNLL’03 shared task</t>
-  </si>
-  <si>
     <t>Word form, uncapitalizaed word-form, word shape, lemma, word cluster, word embedding, k'th prefix, k's suffix, POS, NE tag, NE gazetteer, orthographic feature, and their combination</t>
   </si>
   <si>
@@ -1143,7 +1124,7 @@
     <t>切分问题</t>
   </si>
   <si>
-    <t xml:space="preserve">CWS benchmark dataset,CoNLL03 dataset </t>
+    <t>CoNLL 2003, Others</t>
   </si>
   <si>
     <t>Semi-CRF, Neural networks</t>
@@ -1164,8 +1145,7 @@
     <t>2016 Conference of the North American Chapter of the Association for Computational Linguistics: Human Language Technologies, NAACL HLT 2016 - Proceedings of the Conference</t>
   </si>
   <si>
-    <t>Multilingual datasets: 2002 and
-2003 ConLL shared task datasets</t>
+    <t>CoNLL 2002, CoNLL 2003</t>
   </si>
   <si>
     <t>Byte-to-Span (BTS)：Universal Dependency data, LSTM-based model</t>
@@ -1215,9 +1195,6 @@
     <t>neural networks + logic rules</t>
   </si>
   <si>
-    <t>CoNLL-2003 NER benchmark</t>
-  </si>
-  <si>
     <t>CNN, RNN, logic rules, iterative rule knowledge
 distillation</t>
   </si>
@@ -1231,7 +1208,7 @@
     <t>Carnegie Mellon University, Pompeu Fabra University</t>
   </si>
   <si>
-    <t>CoNLL-2002 and CoNLL-2003 datasets</t>
+    <t xml:space="preserve">CoNLL 2002, CoNLL 2003 </t>
   </si>
   <si>
     <t>Word embedding</t>
@@ -1264,9 +1241,6 @@
     <t>NSW-NER</t>
   </si>
   <si>
-    <t>2,577 Twitter messages (selected from the Edinburgh Twitter corpus (Petrovic et al., 2010))</t>
-  </si>
-  <si>
     <t xml:space="preserve">Lexical features, POS, Token’s capitalization information, Token’s dictionary categorization label, Token’s predicted NSW label, Compound features </t>
   </si>
   <si>
@@ -1288,7 +1262,7 @@
     <t>本文不是提出一种multi-sense的word embedding的方法并将其用于不同的NLP任务，分析其在不同任务中不同的表现</t>
   </si>
   <si>
-    <t>WordNet, CoNLL-2003 English benchmark</t>
+    <t xml:space="preserve">WordNet, CoNLL 2003 </t>
   </si>
   <si>
     <t>multi-sense word embedding</t>
@@ -1322,9 +1296,8 @@
     <t>NER-NEL</t>
   </si>
   <si>
-    <t>tac kbp 2013 data, aida, CoNLL-
-2003 English, CoNLL-2002 Spanish and Ontonotes
-Chinese test sets,Wikipedia</t>
+    <t>TAC KBP 2013, CoNLL
+2003, CoNLL 2002, Ontonotes,Wikipedia</t>
   </si>
   <si>
     <t xml:space="preserve">tokens, embeddings, morphological, POS, </t>
@@ -1364,8 +1337,8 @@
     <t>两种语言word embedding的转换</t>
   </si>
   <si>
-    <t>WMT 2011 monolingual news corpora, WordSim-
-353</t>
+    <t>WordSim
+353, Others</t>
   </si>
   <si>
     <t>Canonical correlation analysis(CCA)</t>
@@ -1383,7 +1356,7 @@
     <t>54th Annual Meeting of the Association for Computational Linguistics, ACL 2016</t>
   </si>
   <si>
-    <t>Penn Treebank WSJ corpus, CoNLL 2003 corpus, Wikipedia</t>
+    <t>WSJ, CoNLL 2003, Wikipedia</t>
   </si>
   <si>
     <t>bidirectional LSTM, CNN, CRF,GloVe 100-dimensional embeddings</t>
@@ -1410,8 +1383,7 @@
     <t>NER-NEL-RE</t>
   </si>
   <si>
-    <t>SIGHAN 2005 shared task, Sina Weibo
-messages</t>
+    <t>SIGHAN 2005 shared task, Sina Weibo</t>
   </si>
   <si>
     <t>LSTM-CRF</t>
@@ -1427,9 +1399,6 @@
   </si>
   <si>
     <t>动态确定每个词汇所需要的features</t>
-  </si>
-  <si>
-    <t>CoNLL 2003 English data set</t>
   </si>
   <si>
     <t>cascade methods</t>
@@ -1469,7 +1438,7 @@
     <t>Segmentation-NER</t>
   </si>
   <si>
-    <t>SIN, SGE, Wikipedia dump</t>
+    <t>Wikipedia, Others</t>
   </si>
   <si>
     <t>HybridSeg</t>
@@ -1487,7 +1456,7 @@
     <t xml:space="preserve">2016 Conference of the North American Chapter of the Association for Computational Linguistics: Human Language Technologies, NAACL HLT 2016 </t>
   </si>
   <si>
-    <t>North American news</t>
+    <t>North American News</t>
   </si>
   <si>
     <t>word embedding</t>
@@ -1503,9 +1472,6 @@
   </si>
   <si>
     <t>The George Washington University, Duolingo, Inc.</t>
-  </si>
-  <si>
-    <t>The targeted dataset contains a list of products</t>
   </si>
   <si>
     <t xml:space="preserve">Token position, Word Shape, In-Title, Preceding/Proceeding keywords within window, Universal Part of Speech Tags, Token is a unit, Gazetteers,Brown Clustering (BC) </t>
@@ -1522,10 +1488,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1545,67 +1511,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1627,7 +1533,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1638,6 +1552,44 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1658,7 +1610,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1675,14 +1649,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1739,19 +1705,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1763,19 +1723,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1787,19 +1747,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1817,49 +1777,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,13 +1807,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1895,25 +1873,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1963,18 +1929,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1995,19 +1950,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2028,6 +1991,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2043,17 +2015,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2065,10 +2031,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2077,133 +2043,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2642,8 +2608,8 @@
   <sheetPr/>
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="G52" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="54" customHeight="1"/>
@@ -3209,32 +3175,32 @@
         <v>23</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M13" s="19">
         <v>0.975</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O13" s="12"/>
       <c r="P13" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A14" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>132</v>
@@ -3243,17 +3209,17 @@
         <v>2007</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>23</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
@@ -3266,99 +3232,99 @@
     </row>
     <row r="15" s="4" customFormat="1" customHeight="1" spans="1:16">
       <c r="A15" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="C15" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="D15" s="14" t="s">
         <v>154</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>155</v>
       </c>
       <c r="E15" s="14">
         <v>2009</v>
       </c>
       <c r="F15" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>156</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>157</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14" t="s">
         <v>23</v>
       </c>
       <c r="J15" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="L15" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>160</v>
       </c>
       <c r="M15" s="22">
         <v>0.908</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O15" s="14"/>
       <c r="P15" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A16" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="C16" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="E16" s="12">
         <v>2004</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12" t="s">
         <v>23</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M16" s="19">
         <v>0.9492</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
     </row>
     <row r="17" s="3" customFormat="1" customHeight="1" spans="1:16">
       <c r="A17" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="13" t="s">
         <v>172</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>173</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>81</v>
@@ -3373,29 +3339,29 @@
         <v>60</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O17" s="13"/>
       <c r="P17" s="13"/>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A18" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="D18" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>179</v>
       </c>
       <c r="E18" s="12">
         <v>2005</v>
@@ -3407,94 +3373,94 @@
         <v>23</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K18" s="12"/>
       <c r="L18" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M18" s="19"/>
       <c r="N18" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O18" s="12"/>
       <c r="P18" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" customHeight="1" spans="1:16">
       <c r="A19" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="D19" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>187</v>
       </c>
       <c r="E19" s="13">
         <v>2004</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13" t="s">
         <v>60</v>
       </c>
       <c r="J19" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="L19" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>191</v>
       </c>
       <c r="M19" s="23">
         <v>0.836</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O19" s="13"/>
       <c r="P19" s="13"/>
     </row>
     <row r="20" customHeight="1" spans="1:1">
       <c r="A20" s="9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" s="3" customFormat="1" customHeight="1" spans="1:16">
       <c r="A21" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>197</v>
       </c>
       <c r="E21" s="13">
         <v>2014</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13" t="s">
         <v>60</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -3502,67 +3468,67 @@
         <v>0.637</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O21" s="13"/>
       <c r="P21" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="1" customHeight="1" spans="1:16">
       <c r="A22" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="C22" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="15" t="s">
         <v>204</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>205</v>
       </c>
       <c r="E22" s="15">
         <v>2013</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="I22" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="J22" s="15" t="s">
         <v>208</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="K22" s="15"/>
       <c r="L22" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="M22" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>211</v>
       </c>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" customHeight="1" spans="1:16">
       <c r="A23" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>216</v>
       </c>
       <c r="E23" s="13">
         <v>2011</v>
@@ -3571,12 +3537,12 @@
       <c r="G23" s="13"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M23" s="23"/>
       <c r="N23" s="13"/>
@@ -3585,39 +3551,39 @@
     </row>
     <row r="24" s="3" customFormat="1" customHeight="1" spans="1:16">
       <c r="A24" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="D24" s="13" t="s">
         <v>221</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="E24" s="13">
         <v>2011</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="J24" s="13" t="s">
+      <c r="L24" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="M24" s="23" t="s">
         <v>226</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="M24" s="23" t="s">
-        <v>228</v>
       </c>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
@@ -3625,32 +3591,32 @@
     </row>
     <row r="25" s="5" customFormat="1" customHeight="1" spans="1:16">
       <c r="A25" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="D25" s="15" t="s">
         <v>230</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>232</v>
       </c>
       <c r="E25" s="15">
         <v>2014</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H25" s="15"/>
       <c r="I25" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M25" s="15"/>
       <c r="N25" s="15"/>
@@ -3659,16 +3625,16 @@
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A26" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="D26" s="12" t="s">
         <v>236</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>238</v>
       </c>
       <c r="E26" s="12">
         <v>2011</v>
@@ -3680,37 +3646,37 @@
         <v>23</v>
       </c>
       <c r="J26" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="L26" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>241</v>
       </c>
       <c r="M26" s="19">
         <v>0.9006</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O26" s="12"/>
       <c r="P26" s="12" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" s="6" customFormat="1" customHeight="1" spans="1:16">
       <c r="A27" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="D27" s="16" t="s">
         <v>245</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>247</v>
       </c>
       <c r="E27" s="16">
         <v>2011</v>
@@ -3718,179 +3684,179 @@
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="J27" s="16" t="s">
         <v>248</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>250</v>
       </c>
       <c r="K27" s="16"/>
       <c r="L27" s="16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="N27" s="16"/>
       <c r="O27" s="16"/>
       <c r="P27" s="16" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28" s="7" customFormat="1" customHeight="1" spans="1:16">
       <c r="A28" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="D28" s="17" t="s">
         <v>255</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>257</v>
       </c>
       <c r="E28" s="17">
         <v>2013</v>
       </c>
       <c r="F28" s="17"/>
       <c r="G28" s="17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="17" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
       <c r="L28" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M28" s="17"/>
       <c r="N28" s="17"/>
       <c r="O28" s="17"/>
       <c r="P28" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" s="5" customFormat="1" customHeight="1" spans="1:16">
       <c r="A29" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="D29" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>265</v>
       </c>
       <c r="E29" s="15">
         <v>2013</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J29" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K29" s="15"/>
       <c r="L29" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M29" s="25">
         <v>0.95</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O29" s="15"/>
       <c r="P29" s="15" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A30" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>272</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>274</v>
       </c>
       <c r="E30" s="12">
         <v>2014</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12" t="s">
         <v>23</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K30" s="12"/>
       <c r="L30" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M30" s="19">
         <v>0.75</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O30" s="12"/>
       <c r="P30" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" s="6" customFormat="1" customHeight="1" spans="1:16">
       <c r="A31" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="D31" s="16" t="s">
         <v>281</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>283</v>
       </c>
       <c r="E31" s="16">
         <v>2011</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J31" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="L31" s="16" t="s">
         <v>285</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="L31" s="16" t="s">
-        <v>287</v>
       </c>
       <c r="M31" s="24">
         <v>0.802</v>
@@ -3898,21 +3864,21 @@
       <c r="N31" s="16"/>
       <c r="O31" s="16"/>
       <c r="P31" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A32" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C32" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>291</v>
-      </c>
       <c r="D32" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E32" s="12">
         <v>2012</v>
@@ -3921,16 +3887,16 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
       <c r="I32" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J32" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="L32" s="12" t="s">
         <v>292</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>294</v>
       </c>
       <c r="M32" s="19">
         <v>0.681</v>
@@ -3941,169 +3907,169 @@
     </row>
     <row r="33" s="6" customFormat="1" customHeight="1" spans="1:16">
       <c r="A33" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="D33" s="16" t="s">
         <v>296</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>298</v>
       </c>
       <c r="E33" s="16">
         <v>2012</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H33" s="16"/>
       <c r="I33" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K33" s="16"/>
       <c r="L33" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M33" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N33" s="16"/>
       <c r="O33" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P33" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:1">
       <c r="A34" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35" s="5" customFormat="1" customHeight="1" spans="1:16">
       <c r="A35" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="D35" s="15" t="s">
         <v>307</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>309</v>
       </c>
       <c r="E35" s="15">
         <v>2017</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H35" s="15"/>
       <c r="I35" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="J35" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="K35" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="J35" s="15" t="s">
+      <c r="L35" s="15" t="s">
         <v>313</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>315</v>
       </c>
       <c r="M35" s="26">
         <v>0.545</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="O35" s="15"/>
       <c r="P35" s="15" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A36" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C36" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="D36" s="12" t="s">
         <v>319</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>321</v>
       </c>
       <c r="E36" s="12">
         <v>2015</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I36" s="12" t="s">
         <v>23</v>
       </c>
       <c r="J36" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="L36" s="12" t="s">
         <v>324</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>326</v>
       </c>
       <c r="M36" s="19"/>
       <c r="N36" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
     </row>
     <row r="37" s="6" customFormat="1" customHeight="1" spans="1:16">
       <c r="A37" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="D37" s="16" t="s">
         <v>329</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>331</v>
       </c>
       <c r="E37" s="16">
         <v>2015</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K37" s="16"/>
       <c r="L37" s="16" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M37" s="24"/>
       <c r="N37" s="16"/>
@@ -4112,16 +4078,16 @@
     </row>
     <row r="38" s="3" customFormat="1" customHeight="1" spans="1:16">
       <c r="A38" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>336</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>338</v>
       </c>
       <c r="E38" s="13">
         <v>2015</v>
@@ -4132,102 +4098,100 @@
       <c r="I38" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="J38" s="13" t="s">
+      <c r="J38" s="13"/>
+      <c r="K38" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="M38" s="23" t="s">
         <v>339</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="M38" s="23" t="s">
-        <v>342</v>
       </c>
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
       <c r="P38" s="13" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39" s="4" customFormat="1" customHeight="1" spans="1:16">
       <c r="A39" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="D39" s="14" t="s">
         <v>344</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>347</v>
       </c>
       <c r="E39" s="14">
         <v>2015</v>
       </c>
       <c r="F39" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="J39" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="K39" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="L39" s="14" t="s">
         <v>349</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="K39" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="L39" s="14" t="s">
-        <v>353</v>
       </c>
       <c r="M39" s="14"/>
       <c r="N39" s="14"/>
       <c r="O39" s="14" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P39" s="14" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A40" s="12" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E40" s="12">
         <v>2016</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="12" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="12" t="s">
         <v>23</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>361</v>
+        <v>126</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M40" s="27">
         <v>0.91</v>
@@ -4235,59 +4199,59 @@
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
       <c r="P40" s="12" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A41" s="12" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E41" s="12">
         <v>2016</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="12" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="12" t="s">
         <v>23</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="K41" s="12"/>
       <c r="L41" s="12" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="M41" s="27"/>
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
       <c r="P41" s="12" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A42" s="12" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E42" s="12">
         <v>2016</v>
@@ -4299,33 +4263,33 @@
         <v>23</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="K42" s="12"/>
       <c r="L42" s="12" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M42" s="27" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
       <c r="P42" s="12" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="1" customHeight="1" spans="1:16">
       <c r="A43" s="13" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E43" s="13">
         <v>2015</v>
@@ -4337,49 +4301,49 @@
         <v>60</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="K43" s="13"/>
       <c r="L43" s="13" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="M43" s="23"/>
       <c r="N43" s="13" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="O43" s="13"/>
       <c r="P43" s="13"/>
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A44" s="12" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E44" s="12">
         <v>2016</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="12" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="12" t="s">
         <v>23</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>393</v>
+        <v>126</v>
       </c>
       <c r="K44" s="12"/>
       <c r="L44" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M44" s="19">
         <v>0.9118</v>
@@ -4390,16 +4354,16 @@
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A45" s="12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E45" s="12">
         <v>2016</v>
@@ -4411,163 +4375,163 @@
         <v>23</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M45" s="19" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
       <c r="P45" s="12" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" s="6" customFormat="1" customHeight="1" spans="1:16">
       <c r="A46" s="16" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E46" s="16">
         <v>2015</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>409</v>
+        <v>248</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="M46" s="24" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="N46" s="16"/>
       <c r="O46" s="16" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="P46" s="16"/>
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A47" s="12" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E47" s="12">
         <v>2015</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="12" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12" t="s">
         <v>23</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="M47" s="19"/>
       <c r="N47" s="12" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="O47" s="12"/>
       <c r="P47" s="12" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
     </row>
     <row r="48" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A48" s="12" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E48" s="12">
         <v>2017</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G48" s="12"/>
       <c r="H48" s="12" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="I48" s="12" t="s">
         <v>23</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="M48" s="19"/>
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
       <c r="P48" s="12" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49" s="5" customFormat="1" customHeight="1" spans="1:16">
       <c r="A49" s="15" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E49" s="15">
         <v>2015</v>
@@ -4576,7 +4540,7 @@
       <c r="G49" s="15"/>
       <c r="H49" s="15"/>
       <c r="I49" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J49" s="15"/>
       <c r="K49" s="15"/>
@@ -4588,54 +4552,54 @@
     </row>
     <row r="50" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A50" s="12" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E50" s="12">
         <v>2015</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="12" t="s">
         <v>23</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="K50" s="12"/>
       <c r="L50" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="M50" s="19"/>
       <c r="N50" s="12"/>
       <c r="O50" s="12"/>
       <c r="P50" s="12" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A51" s="12" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E51" s="12">
         <v>2016</v>
@@ -4647,55 +4611,55 @@
         <v>23</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="K51" s="12"/>
       <c r="L51" s="12" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="M51" s="19">
         <v>0.9121</v>
       </c>
       <c r="N51" s="12" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="O51" s="12"/>
       <c r="P51" s="12" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" s="5" customFormat="1" customHeight="1" spans="1:16">
       <c r="A52" s="15" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E52" s="15">
         <v>2016</v>
       </c>
       <c r="F52" s="15"/>
       <c r="G52" s="15" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J52" s="15" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="K52" s="15"/>
       <c r="L52" s="15" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="M52" s="26">
         <v>0.4841</v>
@@ -4706,34 +4670,34 @@
     </row>
     <row r="53" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A53" s="12" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E53" s="12">
         <v>2015</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="12" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="12" t="s">
         <v>23</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>461</v>
+        <v>126</v>
       </c>
       <c r="K53" s="12"/>
       <c r="L53" s="12" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="M53" s="19">
         <v>0.8835</v>
@@ -4744,23 +4708,23 @@
     </row>
     <row r="54" s="8" customFormat="1" customHeight="1" spans="1:16">
       <c r="A54" s="18" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E54" s="18">
         <v>2015</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="H54" s="18"/>
       <c r="I54" s="18" t="s">
@@ -4769,7 +4733,7 @@
       <c r="J54" s="18"/>
       <c r="K54" s="18"/>
       <c r="L54" s="18" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="M54" s="18"/>
       <c r="N54" s="18"/>
@@ -4778,16 +4742,16 @@
     </row>
     <row r="55" s="6" customFormat="1" customHeight="1" spans="1:16">
       <c r="A55" s="16" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D55" s="16" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="E55" s="16">
         <v>2015</v>
@@ -4795,17 +4759,17 @@
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="K55" s="16"/>
       <c r="L55" s="16" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="M55" s="24"/>
       <c r="N55" s="16"/>
@@ -4814,16 +4778,16 @@
     </row>
     <row r="56" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A56" s="12" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="E56" s="12">
         <v>2016</v>
@@ -4835,13 +4799,13 @@
         <v>23</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="M56" s="19">
         <v>0.8838</v>
@@ -4852,13 +4816,13 @@
     </row>
     <row r="57" s="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A57" s="12" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
@@ -4869,19 +4833,19 @@
         <v>23</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>486</v>
+        <v>117</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="M57" s="19"/>
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
       <c r="P57" s="12" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
